--- a/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>NLBS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,148 +671,187 @@
     <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>42277</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1100</v>
       </c>
       <c r="J8" s="3">
         <v>700</v>
       </c>
       <c r="K8" s="3">
+        <v>800</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
+        <v>700</v>
+      </c>
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,40 +859,52 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,8 +920,12 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +965,20 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,8 +1018,20 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -962,17 +1041,17 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -981,19 +1060,31 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="Q14" s="3">
         <v>3100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1018,14 +1109,14 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1033,8 +1124,20 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1150,118 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F17" s="3">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="G17" s="3">
         <v>1200</v>
       </c>
       <c r="H17" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="I17" s="3">
         <v>1300</v>
       </c>
       <c r="J17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O17" s="3">
         <v>9200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>14800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
         <v>4500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>-8500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>-14400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>-4300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,38 +1277,42 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1187,49 +1322,73 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>-8500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>-14400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>-4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1242,76 +1401,100 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>-8500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>-14700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>-4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1351,8 +1534,20 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1587,126 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>-8500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>-14700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>-4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>-8500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>-14700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>-4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1746,20 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1799,20 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1852,20 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,38 +1905,50 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>300</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1679,49 +1958,73 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>-8500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>-14700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>-4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +2064,131 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>-8500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>-14700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>-4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>42277</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +2204,12 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,49 +2225,65 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
+        <v>700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>700</v>
+      </c>
+      <c r="K41" s="3">
+        <v>400</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,25 +2323,37 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -1990,23 +2361,35 @@
       <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2017,37 +2400,49 @@
         <v>700</v>
       </c>
       <c r="F44" s="3">
+        <v>500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>500</v>
+      </c>
+      <c r="H44" s="3">
+        <v>700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>700</v>
+      </c>
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="S44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2055,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2064,72 +2459,96 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>600</v>
+      </c>
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3">
         <v>2000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2169,90 +2588,126 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H48" s="3">
         <v>3100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>1300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>1200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="S48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>600</v>
+      </c>
+      <c r="G49" s="3">
         <v>700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="J49" s="3">
+        <v>700</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2747,20 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,49 +2800,73 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2906,73 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H54" s="3">
         <v>5000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="I54" s="3">
         <v>5100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="J54" s="3">
         <v>4500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>2100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3">
         <v>2200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2988,12 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,8 +3009,12 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2499,7 +3022,7 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -2508,154 +3031,202 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="S58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>800</v>
+      </c>
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2663,40 +3234,52 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
+        <v>200</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>200</v>
+      </c>
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="S61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2709,35 +3292,47 @@
       <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="G62" s="3">
+        <v>700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>700</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +3372,20 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +3425,20 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,49 +3478,73 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3560,12 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3605,20 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3658,20 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3711,20 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3764,73 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="H72" s="3">
         <v>-37600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>-36700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>-36100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-34800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-34300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-33600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-33400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>-6600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3870,20 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3923,20 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3976,73 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H76" s="3">
         <v>2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +4082,131 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>42277</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>-8500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>-14700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>-4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +4222,12 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3440,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3464,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3472,8 +4267,20 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +4320,20 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +4373,20 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +4426,20 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +4479,20 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +4532,73 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,49 +4614,65 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4712,20 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,49 +4765,73 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4847,12 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4892,20 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4945,20 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4998,20 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,49 +5051,73 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>300</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="J100" s="3">
         <v>2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4162,45 +5157,69 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>NLBS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,246 +665,284 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42277</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>200</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
       </c>
       <c r="H8" s="3">
+        <v>600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>200</v>
+      </c>
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +962,11 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1018,17 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,37 +1080,46 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1072,19 +1131,28 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>3100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="T14" s="3">
         <v>3100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,39 +1162,39 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
@@ -1136,8 +1204,17 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1154,114 +1231,135 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>9200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>14800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>4500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-600</v>
       </c>
       <c r="J18" s="3">
         <v>-1000</v>
       </c>
       <c r="K18" s="3">
-        <v>-400</v>
+        <v>-900</v>
       </c>
       <c r="L18" s="3">
         <v>-600</v>
       </c>
       <c r="M18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-8500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-4300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1281,47 +1379,50 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-300</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1334,61 +1435,79 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-600</v>
       </c>
       <c r="O21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R21" s="3">
         <v>-8500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-4300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1398,11 +1517,11 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1410,91 +1529,109 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
-        <v>-300</v>
+        <v>-2500</v>
       </c>
       <c r="F23" s="3">
         <v>-1000</v>
       </c>
       <c r="G23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-8500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-4500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,8 +1683,17 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,114 +1745,141 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-600</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>-300</v>
+        <v>-2500</v>
       </c>
       <c r="F26" s="3">
         <v>-1000</v>
       </c>
       <c r="G26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-8500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-4500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-600</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
+        <v>-2500</v>
       </c>
       <c r="F27" s="3">
         <v>-1000</v>
       </c>
       <c r="G27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-8500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-4500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1758,8 +1931,17 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1811,8 +1993,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1864,8 +2055,17 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1917,47 +2117,56 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>300</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>300</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1970,61 +2179,79 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-600</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
+        <v>-2500</v>
       </c>
       <c r="F33" s="3">
         <v>-1000</v>
       </c>
       <c r="G33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-8500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-4500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2076,119 +2303,146 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-600</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
+        <v>-2500</v>
       </c>
       <c r="F35" s="3">
         <v>-1000</v>
       </c>
       <c r="G35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-8500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-4500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42277</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2208,8 +2462,11 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2229,61 +2486,73 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2335,128 +2604,155 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>600</v>
+      </c>
+      <c r="F44" s="3">
+        <v>600</v>
+      </c>
+      <c r="G44" s="3">
         <v>700</v>
-      </c>
-      <c r="E44" s="3">
-        <v>700</v>
-      </c>
-      <c r="F44" s="3">
-        <v>500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>700</v>
       </c>
       <c r="I44" s="3">
+        <v>500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>500</v>
+      </c>
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
+        <v>700</v>
+      </c>
+      <c r="M44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
         <v>100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="V44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2468,110 +2764,128 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
         <v>1800</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E46" s="3">
         <v>800</v>
       </c>
       <c r="F46" s="3">
+        <v>700</v>
+      </c>
+      <c r="G46" s="3">
+        <v>800</v>
+      </c>
+      <c r="H46" s="3">
+        <v>800</v>
+      </c>
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="3">
         <v>2000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2600,61 +2914,79 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F48" s="3">
         <v>3000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H48" s="3">
         <v>3200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>3200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>3200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>3100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>1200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
         <v>200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="V48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2668,37 +3000,37 @@
         <v>600</v>
       </c>
       <c r="G49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J49" s="3">
         <v>700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="K49" s="3">
+        <v>700</v>
+      </c>
+      <c r="L49" s="3">
+        <v>700</v>
+      </c>
+      <c r="M49" s="3">
+        <v>700</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2706,8 +3038,17 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2759,8 +3100,17 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2812,8 +3162,17 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2830,34 +3189,34 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2865,8 +3224,17 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2918,61 +3286,79 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G54" s="3">
         <v>4400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>4600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>4600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>5100</v>
       </c>
       <c r="J54" s="3">
         <v>4500</v>
       </c>
       <c r="K54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>2200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>1600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3">
         <v>2200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2992,8 +3378,11 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3013,13 +3402,16 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3034,7 +3426,7 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -3043,69 +3435,78 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3113,159 +3514,186 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
         <v>1500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>800</v>
       </c>
       <c r="J59" s="3">
         <v>800</v>
       </c>
       <c r="K59" s="3">
+        <v>900</v>
+      </c>
+      <c r="L59" s="3">
+        <v>800</v>
+      </c>
+      <c r="M59" s="3">
+        <v>800</v>
+      </c>
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
-      </c>
-      <c r="E61" s="3">
-        <v>200</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>200</v>
+      </c>
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3273,57 +3701,66 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="V61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>500</v>
+      </c>
+      <c r="G62" s="3">
         <v>600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>700</v>
       </c>
       <c r="H62" s="3">
         <v>600</v>
       </c>
       <c r="I62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>600</v>
+      </c>
+      <c r="L62" s="3">
+        <v>600</v>
+      </c>
+      <c r="M62" s="3">
+        <v>700</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3331,8 +3768,17 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3384,8 +3830,17 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3437,8 +3892,17 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3490,61 +3954,79 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G66" s="3">
         <v>4200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3">
         <v>2400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3564,8 +4046,11 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3617,8 +4102,17 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3670,8 +4164,17 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3723,8 +4226,17 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3776,61 +4288,79 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-40800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-40200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-39900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-38800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-37600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-36700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-36100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-34800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-34300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-33600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-33400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>-6600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3882,8 +4412,17 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3935,8 +4474,17 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3988,61 +4536,79 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>200</v>
+      </c>
+      <c r="F76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
+        <v>300</v>
+      </c>
+      <c r="H76" s="3">
         <v>800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>1600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>2400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>1100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4094,119 +4660,146 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42277</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-600</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
+        <v>-2500</v>
       </c>
       <c r="F81" s="3">
         <v>-1000</v>
       </c>
       <c r="G81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-8500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-4500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4226,8 +4819,11 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4247,29 +4843,29 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -4279,8 +4875,17 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4332,8 +4937,17 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4385,8 +4999,17 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4438,8 +5061,17 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4491,8 +5123,17 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4544,61 +5185,79 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>-400</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4618,8 +5277,11 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4632,47 +5294,56 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4724,8 +5395,17 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4777,8 +5457,17 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4788,50 +5477,59 @@
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4851,8 +5549,11 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4904,8 +5605,17 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4957,8 +5667,17 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5010,8 +5729,17 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5063,8 +5791,17 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5072,52 +5809,61 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>300</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>2300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>200</v>
-      </c>
       <c r="P100" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
       <c r="S100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T100" s="3">
+        <v>800</v>
+      </c>
+      <c r="U100" s="3">
+        <v>200</v>
+      </c>
+      <c r="V100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5169,57 +5915,75 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>NLBS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,160 +665,167 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42277</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
+        <v>200</v>
+      </c>
+      <c r="L8" s="3">
         <v>500</v>
-      </c>
-      <c r="L8" s="3">
-        <v>700</v>
       </c>
       <c r="M8" s="3">
         <v>700</v>
       </c>
       <c r="N8" s="3">
+        <v>700</v>
+      </c>
+      <c r="O8" s="3">
         <v>800</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1100</v>
       </c>
       <c r="P8" s="3">
         <v>1100</v>
       </c>
       <c r="Q8" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="R8" s="3">
         <v>700</v>
       </c>
       <c r="S8" s="3">
+        <v>700</v>
+      </c>
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -826,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
@@ -838,111 +845,117 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
-      </c>
-      <c r="P9" s="3">
-        <v>400</v>
       </c>
       <c r="Q9" s="3">
         <v>400</v>
       </c>
       <c r="R9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S9" s="3">
         <v>300</v>
       </c>
       <c r="T9" s="3">
+        <v>300</v>
+      </c>
+      <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-100</v>
       </c>
       <c r="J10" s="3">
         <v>-100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
-      </c>
-      <c r="S10" s="3">
-        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +978,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,8 +1041,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1089,8 +1106,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1115,14 +1135,14 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1140,19 +1160,22 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>3100</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1162,11 +1185,11 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1174,30 +1197,30 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
@@ -1213,8 +1236,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1234,132 +1260,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>600</v>
       </c>
       <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1300</v>
       </c>
       <c r="Q17" s="3">
         <v>1300</v>
       </c>
       <c r="R17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S17" s="3">
         <v>9200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-500</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-14400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,49 +1415,50 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1444,70 +1478,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-700</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-14400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1517,11 +1557,11 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1529,11 +1569,11 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1544,8 +1584,8 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1557,81 +1597,87 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-14700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1692,8 +1738,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,132 +1803,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-14700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-700</v>
       </c>
       <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-14700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +1998,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2002,8 +2063,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2128,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,49 +2193,52 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>200</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2188,70 +2258,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-700</v>
       </c>
       <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-14700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2312,137 +2388,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-700</v>
       </c>
       <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-14700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42277</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2465,8 +2550,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2489,26 +2575,27 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2516,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>700</v>
       </c>
       <c r="M41" s="3">
         <v>700</v>
       </c>
       <c r="N41" s="3">
+        <v>700</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
-      </c>
-      <c r="O41" s="3">
-        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
@@ -2536,8 +2623,8 @@
       <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
+      <c r="R41" s="3">
+        <v>200</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
@@ -2545,14 +2632,17 @@
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
+      <c r="U41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2613,8 +2703,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2625,11 +2718,11 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2640,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2649,19 +2742,19 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
+      <c r="R43" s="3">
+        <v>100</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
@@ -2669,14 +2762,17 @@
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2690,55 +2786,58 @@
         <v>600</v>
       </c>
       <c r="G44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H44" s="3">
         <v>700</v>
       </c>
       <c r="I44" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J44" s="3">
         <v>500</v>
       </c>
       <c r="K44" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L44" s="3">
         <v>700</v>
       </c>
       <c r="M44" s="3">
+        <v>700</v>
+      </c>
+      <c r="N44" s="3">
         <v>400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U44" s="3">
-        <v>100</v>
+      <c r="U44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2748,8 +2847,8 @@
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2758,16 +2857,16 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2776,7 +2875,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
@@ -2784,8 +2883,8 @@
       <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
+      <c r="R45" s="3">
+        <v>200</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
@@ -2793,76 +2892,82 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3">
         <v>1800</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>800</v>
       </c>
       <c r="H46" s="3">
         <v>800</v>
       </c>
       <c r="I46" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J46" s="3">
         <v>600</v>
       </c>
       <c r="K46" s="3">
+        <v>600</v>
+      </c>
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V46" s="3">
         <v>2000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2875,8 +2980,8 @@
       <c r="F47" s="3">
         <v>400</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
+      <c r="G47" s="3">
+        <v>400</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2887,8 +2992,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2923,8 +3028,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2932,16 +3040,16 @@
         <v>2800</v>
       </c>
       <c r="E48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F48" s="3">
         <v>2900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3000</v>
       </c>
       <c r="G48" s="3">
         <v>3000</v>
       </c>
       <c r="H48" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="I48" s="3">
         <v>3200</v>
@@ -2950,48 +3058,51 @@
         <v>3200</v>
       </c>
       <c r="K48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U48" s="3">
-        <v>200</v>
+      <c r="U48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E49" s="3">
         <v>600</v>
@@ -3009,7 +3120,7 @@
         <v>600</v>
       </c>
       <c r="J49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K49" s="3">
         <v>700</v>
@@ -3020,8 +3131,8 @@
       <c r="M49" s="3">
         <v>700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
+      <c r="N49" s="3">
+        <v>700</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
@@ -3032,8 +3143,8 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3047,8 +3158,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3109,8 +3223,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3171,8 +3288,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3198,19 +3318,19 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
@@ -3218,8 +3338,8 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3233,8 +3353,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3295,8 +3418,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3304,61 +3430,64 @@
         <v>4500</v>
       </c>
       <c r="E54" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="F54" s="3">
         <v>4700</v>
       </c>
       <c r="G54" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H54" s="3">
         <v>4400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4600</v>
       </c>
       <c r="I54" s="3">
         <v>4600</v>
       </c>
       <c r="J54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K54" s="3">
         <v>4500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="3">
         <v>2200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3510,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3405,16 +3535,17 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3435,81 +3566,84 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
+      <c r="U57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
         <v>2200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2300</v>
       </c>
       <c r="F58" s="3">
         <v>2300</v>
       </c>
       <c r="G58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -3523,111 +3657,117 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3">
         <v>1500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1300</v>
       </c>
       <c r="F59" s="3">
         <v>1300</v>
       </c>
       <c r="G59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
-      </c>
-      <c r="L59" s="3">
-        <v>800</v>
       </c>
       <c r="M59" s="3">
         <v>800</v>
       </c>
       <c r="N59" s="3">
+        <v>800</v>
+      </c>
+      <c r="O59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>700</v>
       </c>
       <c r="P59" s="3">
         <v>700</v>
       </c>
       <c r="Q59" s="3">
+        <v>700</v>
+      </c>
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
         <v>3900</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3800</v>
       </c>
       <c r="F60" s="3">
         <v>3800</v>
       </c>
       <c r="G60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1000</v>
       </c>
       <c r="O60" s="3">
         <v>1000</v>
@@ -3636,25 +3776,28 @@
         <v>1000</v>
       </c>
       <c r="Q60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V60" s="3">
         <v>2300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3665,38 +3808,38 @@
         <v>300</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3710,13 +3853,16 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3724,35 +3870,35 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>500</v>
       </c>
       <c r="G62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H62" s="3">
         <v>600</v>
       </c>
       <c r="I62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J62" s="3">
         <v>700</v>
       </c>
       <c r="K62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L62" s="3">
         <v>600</v>
       </c>
       <c r="M62" s="3">
+        <v>600</v>
+      </c>
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3762,8 +3908,8 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3777,8 +3923,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +3988,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3901,8 +4053,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3963,70 +4118,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="3">
         <v>2400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4210,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4111,8 +4273,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4173,8 +4338,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4235,8 +4403,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4297,70 +4468,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-45100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-44200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-41700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-40800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-40200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-39900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-37600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-36700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-34800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-34300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-33600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-33400</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3">
         <v>-6600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4421,8 +4598,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4663,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4545,70 +4728,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>200</v>
-      </c>
-      <c r="F76" s="3">
-        <v>300</v>
       </c>
       <c r="G76" s="3">
         <v>300</v>
       </c>
       <c r="H76" s="3">
+        <v>300</v>
+      </c>
+      <c r="I76" s="3">
         <v>800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4669,137 +4858,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42277</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-700</v>
       </c>
       <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-14700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4822,8 +5020,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4852,11 +5051,11 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4864,11 +5063,11 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
@@ -4884,8 +5083,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4946,8 +5148,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5008,8 +5213,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5070,8 +5278,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5132,8 +5343,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5194,8 +5408,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5203,61 +5420,64 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
         <v>-400</v>
       </c>
       <c r="G89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-500</v>
       </c>
       <c r="K89" s="3">
         <v>-500</v>
       </c>
       <c r="L89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5280,8 +5500,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5303,36 +5524,36 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -5342,8 +5563,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5404,8 +5628,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5466,8 +5693,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5486,39 +5716,39 @@
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -5528,8 +5758,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5552,8 +5785,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5614,8 +5848,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5676,8 +5913,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,8 +5978,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5800,70 +6043,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5924,23 +6173,26 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5948,42 +6200,45 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>NLBS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,187 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42277</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3">
         <v>500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>700</v>
       </c>
       <c r="N8" s="3">
         <v>700</v>
       </c>
       <c r="O8" s="3">
+        <v>700</v>
+      </c>
+      <c r="P8" s="3">
         <v>800</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1100</v>
       </c>
       <c r="Q8" s="3">
         <v>1100</v>
       </c>
       <c r="R8" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="S8" s="3">
         <v>700</v>
       </c>
       <c r="T8" s="3">
+        <v>700</v>
+      </c>
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
@@ -848,114 +854,120 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
       </c>
       <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>400</v>
       </c>
       <c r="R9" s="3">
         <v>400</v>
       </c>
       <c r="S9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T9" s="3">
         <v>300</v>
       </c>
       <c r="U9" s="3">
+        <v>300</v>
+      </c>
+      <c r="V9" s="3">
         <v>100</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
       <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-100</v>
       </c>
       <c r="K10" s="3">
         <v>-100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
-      </c>
-      <c r="T10" s="3">
-        <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -979,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1109,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,14 +1157,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1163,19 +1182,22 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>3100</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1188,11 +1210,11 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1200,30 +1222,30 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
@@ -1239,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1261,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1300</v>
       </c>
       <c r="R17" s="3">
         <v>1300</v>
       </c>
       <c r="S17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T17" s="3">
         <v>9200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-14400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1416,52 +1448,53 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1481,73 +1514,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-8500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-14400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1560,11 +1599,11 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1572,11 +1611,11 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1587,8 +1626,8 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1600,84 +1639,90 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-14700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1741,8 +1786,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1806,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-14700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-14700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2001,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2066,8 +2126,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2131,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2196,52 +2262,55 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2261,73 +2330,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-14700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2391,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-14700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42277</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2551,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2576,8 +2661,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2585,20 +2671,20 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2606,19 +2692,19 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>700</v>
       </c>
       <c r="N41" s="3">
         <v>700</v>
       </c>
       <c r="O41" s="3">
+        <v>700</v>
+      </c>
+      <c r="P41" s="3">
         <v>400</v>
-      </c>
-      <c r="P41" s="3">
-        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
@@ -2626,8 +2712,8 @@
       <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
+      <c r="S41" s="3">
+        <v>200</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
@@ -2635,14 +2721,17 @@
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
+      <c r="V41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2706,13 +2795,16 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2721,11 +2813,11 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -2736,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2745,19 +2837,19 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
+      <c r="S43" s="3">
+        <v>100</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
@@ -2765,19 +2857,22 @@
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>600</v>
@@ -2789,60 +2884,63 @@
         <v>600</v>
       </c>
       <c r="H44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I44" s="3">
         <v>700</v>
       </c>
       <c r="J44" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K44" s="3">
         <v>500</v>
       </c>
       <c r="L44" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M44" s="3">
         <v>700</v>
       </c>
       <c r="N44" s="3">
+        <v>700</v>
+      </c>
+      <c r="O44" s="3">
         <v>400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V44" s="3">
-        <v>100</v>
+      <c r="V44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
@@ -2850,8 +2948,8 @@
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2860,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2878,7 +2976,7 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
@@ -2886,8 +2984,8 @@
       <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
+      <c r="S45" s="3">
+        <v>200</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
@@ -2895,79 +2993,85 @@
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3">
         <v>1800</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
-      </c>
-      <c r="H46" s="3">
-        <v>800</v>
       </c>
       <c r="I46" s="3">
         <v>800</v>
       </c>
       <c r="J46" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K46" s="3">
         <v>600</v>
       </c>
       <c r="L46" s="3">
+        <v>600</v>
+      </c>
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" s="3">
         <v>2000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2983,8 +3087,8 @@
       <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="H47" s="3">
+        <v>400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2995,8 +3099,8 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3031,28 +3135,31 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E48" s="3">
         <v>2800</v>
       </c>
       <c r="F48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G48" s="3">
         <v>2900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3000</v>
       </c>
       <c r="H48" s="3">
         <v>3000</v>
       </c>
       <c r="I48" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="J48" s="3">
         <v>3200</v>
@@ -3061,43 +3168,46 @@
         <v>3200</v>
       </c>
       <c r="L48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V48" s="3">
-        <v>200</v>
+      <c r="V48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3105,7 +3215,7 @@
         <v>500</v>
       </c>
       <c r="E49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F49" s="3">
         <v>600</v>
@@ -3123,7 +3233,7 @@
         <v>600</v>
       </c>
       <c r="K49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L49" s="3">
         <v>700</v>
@@ -3134,8 +3244,8 @@
       <c r="N49" s="3">
         <v>700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
+      <c r="O49" s="3">
+        <v>700</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
@@ -3146,8 +3256,8 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3161,8 +3271,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3226,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3291,13 +3407,16 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3321,19 +3440,19 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
@@ -3341,8 +3460,8 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3356,8 +3475,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3421,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4500</v>
+        <v>4900</v>
       </c>
       <c r="E54" s="3">
         <v>4500</v>
       </c>
       <c r="F54" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="G54" s="3">
         <v>4700</v>
       </c>
       <c r="H54" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I54" s="3">
         <v>4400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>4600</v>
       </c>
       <c r="J54" s="3">
         <v>4600</v>
       </c>
       <c r="K54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L54" s="3">
         <v>4500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W54" s="3">
         <v>2200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3511,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3536,19 +3665,20 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -3569,84 +3699,87 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
+      <c r="V57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2300</v>
       </c>
       <c r="G58" s="3">
         <v>2300</v>
       </c>
       <c r="H58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -3660,117 +3793,123 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3">
         <v>1500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1300</v>
       </c>
       <c r="G59" s="3">
         <v>1300</v>
       </c>
       <c r="H59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
-      </c>
-      <c r="M59" s="3">
-        <v>800</v>
       </c>
       <c r="N59" s="3">
         <v>800</v>
       </c>
       <c r="O59" s="3">
+        <v>800</v>
+      </c>
+      <c r="P59" s="3">
         <v>600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>700</v>
       </c>
       <c r="Q59" s="3">
         <v>700</v>
       </c>
       <c r="R59" s="3">
+        <v>700</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3800</v>
       </c>
       <c r="G60" s="3">
         <v>3800</v>
       </c>
       <c r="H60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1000</v>
       </c>
       <c r="P60" s="3">
         <v>1000</v>
@@ -3779,30 +3918,33 @@
         <v>1000</v>
       </c>
       <c r="R60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W60" s="3">
         <v>2300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
@@ -3811,38 +3953,38 @@
         <v>300</v>
       </c>
       <c r="G61" s="3">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3856,13 +3998,16 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3873,35 +4018,35 @@
         <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>500</v>
       </c>
       <c r="H62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
       </c>
       <c r="J62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K62" s="3">
         <v>700</v>
       </c>
       <c r="L62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M62" s="3">
         <v>600</v>
       </c>
       <c r="N62" s="3">
+        <v>600</v>
+      </c>
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3911,8 +4056,8 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3926,8 +4071,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3991,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4056,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4121,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W66" s="3">
         <v>2400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4211,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4276,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4341,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4406,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4471,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-45800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-45100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-44200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-41700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-40800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-40200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-39900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-37600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-34800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-34300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-33600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-33400</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W72" s="3">
         <v>-6600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4601,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4666,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4731,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>300</v>
       </c>
       <c r="H76" s="3">
         <v>300</v>
       </c>
       <c r="I76" s="3">
+        <v>300</v>
+      </c>
+      <c r="J76" s="3">
         <v>800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4861,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42277</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-14700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5021,8 +5218,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5054,11 +5252,11 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -5066,11 +5264,11 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
@@ -5086,8 +5284,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5151,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5216,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5281,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5346,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5411,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>500</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
       </c>
       <c r="F89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
       </c>
       <c r="H89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-500</v>
       </c>
       <c r="L89" s="3">
         <v>-500</v>
       </c>
       <c r="M89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5501,62 +5720,63 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -5566,8 +5786,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5631,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5696,28 +5922,31 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5726,32 +5955,32 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -5761,8 +5990,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5786,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5851,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5916,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5981,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6046,73 +6288,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6176,26 +6424,29 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -6203,42 +6454,45 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>NLBS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,335 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42277</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>600</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
+        <v>600</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
+        <v>200</v>
+      </c>
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
       <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>300</v>
-      </c>
-      <c r="V9" s="3">
-        <v>100</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
       </c>
       <c r="X9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>700</v>
       </c>
       <c r="S10" s="3">
         <v>300</v>
       </c>
       <c r="T10" s="3">
+        <v>700</v>
+      </c>
+      <c r="U10" s="3">
+        <v>300</v>
+      </c>
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1018,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1088,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1162,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1140,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1149,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1160,17 +1200,17 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1185,27 +1225,33 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>3100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>3100</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1213,45 +1259,45 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
@@ -1264,8 +1310,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1339,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1000</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1200</v>
       </c>
       <c r="Q17" s="3">
         <v>1700</v>
       </c>
       <c r="R17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>9200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>14800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>4500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="Q18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-600</v>
       </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V18" s="3">
         <v>-8500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-14400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-4300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,59 +1515,61 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-1200</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1517,76 +1585,88 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-8500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-14400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-4300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1602,26 +1682,26 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1629,11 +1709,11 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1642,87 +1722,99 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-8500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-14700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-4500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1789,8 +1881,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1955,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-8500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-14700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-4500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-8500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-14700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-4500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2177,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2251,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2325,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,59 +2399,65 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>1200</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>200</v>
+      </c>
+      <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2333,76 +2473,88 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-8500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-14700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-4500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2621,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-8500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-14700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-4500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42277</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2806,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,8 +2834,10 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2674,7 +2848,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -2689,49 +2863,55 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>200</v>
-      </c>
-      <c r="R41" s="3">
-        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
+      <c r="T41" s="3">
+        <v>200</v>
+      </c>
+      <c r="U41" s="3">
+        <v>200</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,8 +2978,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2807,23 +2993,23 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2831,54 +3017,60 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>400</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
-        <v>600</v>
-      </c>
       <c r="F44" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G44" s="3">
         <v>600</v>
@@ -2887,134 +3079,146 @@
         <v>600</v>
       </c>
       <c r="I44" s="3">
+        <v>600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>600</v>
+      </c>
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>700</v>
-      </c>
-      <c r="O44" s="3">
-        <v>400</v>
-      </c>
-      <c r="P44" s="3">
-        <v>300</v>
       </c>
       <c r="Q44" s="3">
         <v>400</v>
       </c>
       <c r="R44" s="3">
+        <v>300</v>
+      </c>
+      <c r="S44" s="3">
+        <v>400</v>
+      </c>
+      <c r="T44" s="3">
         <v>500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y44" s="3">
         <v>100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
+      <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
+        <v>200</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y45" s="3">
         <v>1800</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
-      </c>
-      <c r="E46" s="3">
-        <v>800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>700</v>
       </c>
       <c r="G46" s="3">
         <v>800</v>
@@ -3026,60 +3230,66 @@
         <v>800</v>
       </c>
       <c r="J46" s="3">
+        <v>700</v>
+      </c>
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
+        <v>800</v>
+      </c>
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y46" s="3">
         <v>2000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="E47" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F47" s="3">
         <v>400</v>
@@ -3090,11 +3300,11 @@
       <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+      <c r="I47" s="3">
+        <v>400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>400</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -3102,11 +3312,11 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3138,90 +3348,102 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>3200</v>
       </c>
       <c r="L48" s="3">
         <v>3200</v>
       </c>
       <c r="M48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="3">
         <v>200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>600</v>
       </c>
       <c r="H49" s="3">
         <v>600</v>
@@ -3236,10 +3458,10 @@
         <v>600</v>
       </c>
       <c r="L49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N49" s="3">
         <v>700</v>
@@ -3247,11 +3469,11 @@
       <c r="O49" s="3">
         <v>700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
+      <c r="P49" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>700</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
@@ -3259,11 +3481,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3274,8 +3496,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3570,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,20 +3644,26 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -3443,31 +3683,31 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3478,8 +3718,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3792,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F54" s="3">
         <v>4900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y54" s="3">
         <v>2200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3898,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,13 +3926,15 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3684,7 +3946,7 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3702,90 +3964,96 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -3796,150 +4064,168 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>900</v>
       </c>
       <c r="N59" s="3">
         <v>800</v>
       </c>
       <c r="O59" s="3">
+        <v>900</v>
+      </c>
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
+        <v>800</v>
+      </c>
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y59" s="3">
         <v>700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F60" s="3">
         <v>5200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1000</v>
       </c>
       <c r="R60" s="3">
         <v>1000</v>
       </c>
       <c r="S60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y60" s="3">
         <v>2300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3947,50 +4233,50 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
       </c>
       <c r="H61" s="3">
+        <v>300</v>
+      </c>
+      <c r="I61" s="3">
+        <v>300</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4001,13 +4287,19 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4015,55 +4307,55 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
       </c>
       <c r="G62" s="3">
+        <v>400</v>
+      </c>
+      <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4074,8 +4366,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4440,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4514,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4588,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1100</v>
       </c>
       <c r="R66" s="3">
         <v>1000</v>
       </c>
       <c r="S66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y66" s="3">
         <v>2400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4694,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4764,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4838,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4912,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4986,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-47600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-45800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-45100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-44200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-41700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-40800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-40200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-39900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-38800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-37600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-36700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-36100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-34800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-34300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-33600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-33400</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-6600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +5134,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5208,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5282,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1100</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5430,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42277</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-8500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-14700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-4500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5615,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5255,26 +5653,26 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
@@ -5287,8 +5685,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5759,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5833,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5907,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5981,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +6055,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,8 +6161,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5747,50 +6189,56 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6305,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,8 +6379,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5934,22 +6394,22 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-700</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5958,43 +6418,49 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6485,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6555,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6629,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6703,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,8 +6777,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6300,67 +6792,73 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>300</v>
       </c>
       <c r="K100" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L100" s="3">
         <v>300</v>
       </c>
       <c r="M100" s="3">
+        <v>400</v>
+      </c>
+      <c r="N100" s="3">
+        <v>300</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,8 +6925,14 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6436,10 +6940,10 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
@@ -6448,51 +6952,57 @@
         <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>NLBS</t>
   </si>
@@ -1346,8 +1346,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
@@ -1420,8 +1420,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-600</v>
       </c>
       <c r="E18" s="3">
         <v>-700</v>
@@ -1522,8 +1522,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
         <v>-400</v>
@@ -1535,7 +1535,7 @@
         <v>-200</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>-1100</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
@@ -1596,11 +1596,11 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-800</v>
       </c>
       <c r="E21" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="F21" s="3">
         <v>-1800</v>
@@ -1609,7 +1609,7 @@
         <v>-700</v>
       </c>
       <c r="H21" s="3">
-        <v>-800</v>
+        <v>-1800</v>
       </c>
       <c r="I21" s="3">
         <v>-2500</v>
@@ -1757,7 +1757,7 @@
         <v>-700</v>
       </c>
       <c r="H23" s="3">
-        <v>-800</v>
+        <v>-1800</v>
       </c>
       <c r="I23" s="3">
         <v>-2500</v>
@@ -1966,8 +1966,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-900</v>
       </c>
       <c r="E26" s="3">
         <v>-1100</v>
@@ -1979,7 +1979,7 @@
         <v>-700</v>
       </c>
       <c r="H26" s="3">
-        <v>-800</v>
+        <v>-1800</v>
       </c>
       <c r="I26" s="3">
         <v>-2500</v>
@@ -2040,8 +2040,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-900</v>
       </c>
       <c r="E27" s="3">
         <v>-1100</v>
@@ -2053,7 +2053,7 @@
         <v>-700</v>
       </c>
       <c r="H27" s="3">
-        <v>-800</v>
+        <v>-1800</v>
       </c>
       <c r="I27" s="3">
         <v>-2500</v>
@@ -2410,8 +2410,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>300</v>
       </c>
       <c r="E32" s="3">
         <v>400</v>
@@ -2423,7 +2423,7 @@
         <v>200</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
@@ -2484,8 +2484,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-900</v>
       </c>
       <c r="E33" s="3">
         <v>-1100</v>
@@ -2497,7 +2497,7 @@
         <v>-700</v>
       </c>
       <c r="H33" s="3">
-        <v>-800</v>
+        <v>-1800</v>
       </c>
       <c r="I33" s="3">
         <v>-2500</v>
@@ -2632,8 +2632,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-900</v>
       </c>
       <c r="E35" s="3">
         <v>-1100</v>
@@ -2645,7 +2645,7 @@
         <v>-700</v>
       </c>
       <c r="H35" s="3">
-        <v>-800</v>
+        <v>-1800</v>
       </c>
       <c r="I35" s="3">
         <v>-2500</v>
@@ -4082,7 +4082,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3900</v>
+        <v>1600</v>
       </c>
       <c r="E59" s="3">
         <v>1700</v>
@@ -4162,7 +4162,7 @@
         <v>4300</v>
       </c>
       <c r="F60" s="3">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="G60" s="3">
         <v>4200</v>
@@ -4304,13 +4304,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>2700</v>
       </c>
       <c r="E62" s="3">
         <v>2600</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
@@ -5520,8 +5520,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-900</v>
       </c>
       <c r="E81" s="3">
         <v>-1100</v>
@@ -5533,7 +5533,7 @@
         <v>-700</v>
       </c>
       <c r="H81" s="3">
-        <v>-800</v>
+        <v>-1800</v>
       </c>
       <c r="I81" s="3">
         <v>-2500</v>
@@ -5623,10 +5623,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>NLBS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,117 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42277</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,70 +786,73 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
       <c r="O8" s="3">
+        <v>200</v>
+      </c>
+      <c r="P8" s="3">
         <v>500</v>
-      </c>
-      <c r="P8" s="3">
-        <v>700</v>
       </c>
       <c r="Q8" s="3">
         <v>700</v>
       </c>
       <c r="R8" s="3">
+        <v>700</v>
+      </c>
+      <c r="S8" s="3">
         <v>800</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1100</v>
       </c>
       <c r="T8" s="3">
         <v>1100</v>
       </c>
       <c r="U8" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="V8" s="3">
         <v>700</v>
       </c>
       <c r="W8" s="3">
+        <v>700</v>
+      </c>
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -853,22 +860,22 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
@@ -877,49 +884,52 @@
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
       </c>
       <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>800</v>
-      </c>
-      <c r="T9" s="3">
-        <v>400</v>
       </c>
       <c r="U9" s="3">
         <v>400</v>
       </c>
       <c r="V9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W9" s="3">
         <v>300</v>
       </c>
       <c r="X9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y9" s="3">
         <v>100</v>
       </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
       <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -927,73 +937,76 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>400</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-100</v>
       </c>
       <c r="N10" s="3">
         <v>-100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>500</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>400</v>
-      </c>
-      <c r="W10" s="3">
-        <v>100</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,8 +1033,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,8 +1108,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1168,8 +1185,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1180,22 +1200,22 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1206,14 +1226,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1231,19 +1251,22 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>3100</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1254,22 +1277,22 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1277,30 +1300,30 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
@@ -1316,8 +1339,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1341,156 +1367,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
       </c>
       <c r="G17" s="3">
+        <v>800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="3">
+        <v>800</v>
+      </c>
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
-        <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>1700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1300</v>
       </c>
       <c r="U17" s="3">
         <v>1300</v>
       </c>
       <c r="V17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W17" s="3">
         <v>9200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="O18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1517,61 +1550,62 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
-        <v>-200</v>
-      </c>
       <c r="H20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1591,82 +1625,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="W21" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1688,11 +1728,11 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1700,11 +1740,11 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1715,8 +1755,8 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1728,93 +1768,99 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
         <v>200</v>
       </c>
       <c r="Y22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="W23" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1887,8 +1933,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1961,156 +2010,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="W26" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="W27" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2183,8 +2241,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2257,8 +2318,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2331,8 +2395,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2405,61 +2472,64 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
-        <v>200</v>
-      </c>
       <c r="H32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I32" s="3">
         <v>1100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2479,82 +2549,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="W33" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2627,161 +2703,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="W35" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42277</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2808,8 +2893,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2836,13 +2922,14 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2854,20 +2941,20 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2875,19 +2962,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>700</v>
       </c>
       <c r="Q41" s="3">
         <v>700</v>
       </c>
       <c r="R41" s="3">
+        <v>700</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
-      </c>
-      <c r="S41" s="3">
-        <v>200</v>
       </c>
       <c r="T41" s="3">
         <v>200</v>
@@ -2895,8 +2982,8 @@
       <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
+      <c r="V41" s="3">
+        <v>200</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
@@ -2904,14 +2991,17 @@
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2984,8 +3074,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2999,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -3008,11 +3101,11 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -3023,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -3032,19 +3125,19 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
+      <c r="V43" s="3">
+        <v>100</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
@@ -3052,14 +3145,17 @@
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3067,13 +3163,13 @@
         <v>400</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
       </c>
       <c r="G44" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>600</v>
@@ -3085,55 +3181,58 @@
         <v>600</v>
       </c>
       <c r="K44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L44" s="3">
         <v>700</v>
       </c>
       <c r="M44" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N44" s="3">
         <v>500</v>
       </c>
       <c r="O44" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="P44" s="3">
         <v>700</v>
       </c>
       <c r="Q44" s="3">
+        <v>700</v>
+      </c>
+      <c r="R44" s="3">
         <v>400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y44" s="3">
-        <v>100</v>
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3146,8 +3245,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -3155,8 +3254,8 @@
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3165,16 +3264,16 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -3183,7 +3282,7 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
@@ -3191,8 +3290,8 @@
       <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
+      <c r="V45" s="3">
+        <v>200</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
@@ -3200,88 +3299,94 @@
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3">
         <v>1800</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
         <v>400</v>
       </c>
       <c r="F46" s="3">
+        <v>400</v>
+      </c>
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
-      </c>
-      <c r="K46" s="3">
-        <v>800</v>
       </c>
       <c r="L46" s="3">
         <v>800</v>
       </c>
       <c r="M46" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N46" s="3">
         <v>600</v>
       </c>
       <c r="O46" s="3">
+        <v>600</v>
+      </c>
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="3">
         <v>2000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3292,7 +3397,7 @@
         <v>1300</v>
       </c>
       <c r="F47" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="G47" s="3">
         <v>400</v>
@@ -3306,8 +3411,8 @@
       <c r="J47" s="3">
         <v>400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>400</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -3318,8 +3423,8 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3354,8 +3459,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3363,28 +3471,28 @@
         <v>2800</v>
       </c>
       <c r="E48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2800</v>
       </c>
       <c r="H48" s="3">
         <v>2800</v>
       </c>
       <c r="I48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J48" s="3">
         <v>2900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3000</v>
       </c>
       <c r="K48" s="3">
         <v>3000</v>
       </c>
       <c r="L48" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M48" s="3">
         <v>3200</v>
@@ -3393,60 +3501,63 @@
         <v>3200</v>
       </c>
       <c r="O48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P48" s="3">
         <v>3100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y48" s="3">
-        <v>200</v>
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E49" s="3">
         <v>600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>500</v>
       </c>
       <c r="G49" s="3">
         <v>500</v>
       </c>
       <c r="H49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I49" s="3">
         <v>600</v>
@@ -3464,7 +3575,7 @@
         <v>600</v>
       </c>
       <c r="N49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O49" s="3">
         <v>700</v>
@@ -3475,8 +3586,8 @@
       <c r="Q49" s="3">
         <v>700</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
+      <c r="R49" s="3">
+        <v>700</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
@@ -3487,8 +3598,8 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3502,8 +3613,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3576,8 +3690,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3650,8 +3767,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3662,11 +3782,11 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
@@ -3689,19 +3809,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
@@ -3709,8 +3829,8 @@
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3724,8 +3844,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3798,82 +3921,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4900</v>
-      </c>
-      <c r="G54" s="3">
-        <v>4500</v>
       </c>
       <c r="H54" s="3">
         <v>4500</v>
       </c>
       <c r="I54" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="J54" s="3">
         <v>4700</v>
       </c>
       <c r="K54" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L54" s="3">
         <v>4400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>4600</v>
       </c>
       <c r="M54" s="3">
         <v>4600</v>
       </c>
       <c r="N54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O54" s="3">
         <v>4500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1600</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z54" s="3">
         <v>2200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3900,8 +4029,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3928,8 +4058,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3940,16 +4071,16 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -3970,93 +4101,96 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
+        <v>300</v>
+      </c>
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E58" s="3">
         <v>2400</v>
       </c>
       <c r="F58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2300</v>
       </c>
       <c r="J58" s="3">
         <v>2300</v>
       </c>
       <c r="K58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
@@ -4070,135 +4204,141 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1300</v>
       </c>
       <c r="J59" s="3">
         <v>1300</v>
       </c>
       <c r="K59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
-      </c>
-      <c r="P59" s="3">
-        <v>800</v>
       </c>
       <c r="Q59" s="3">
         <v>800</v>
       </c>
       <c r="R59" s="3">
+        <v>800</v>
+      </c>
+      <c r="S59" s="3">
         <v>600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>700</v>
       </c>
       <c r="T59" s="3">
         <v>700</v>
       </c>
       <c r="U59" s="3">
+        <v>700</v>
+      </c>
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="3">
         <v>700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="E60" s="3">
         <v>4300</v>
       </c>
       <c r="F60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3800</v>
       </c>
       <c r="J60" s="3">
         <v>3800</v>
       </c>
       <c r="K60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1000</v>
       </c>
       <c r="S60" s="3">
         <v>1000</v>
@@ -4207,25 +4347,28 @@
         <v>1000</v>
       </c>
       <c r="U60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z60" s="3">
         <v>2300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4239,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
@@ -4248,38 +4391,38 @@
         <v>300</v>
       </c>
       <c r="J61" s="3">
+        <v>300</v>
+      </c>
+      <c r="K61" s="3">
         <v>100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>100</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4293,61 +4436,64 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J62" s="3">
         <v>500</v>
       </c>
       <c r="K62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L62" s="3">
         <v>600</v>
       </c>
       <c r="M62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N62" s="3">
         <v>700</v>
       </c>
       <c r="O62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P62" s="3">
         <v>600</v>
       </c>
       <c r="Q62" s="3">
+        <v>600</v>
+      </c>
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4357,8 +4503,8 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4372,8 +4518,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4446,8 +4595,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4520,8 +4672,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4594,82 +4749,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E66" s="3">
         <v>7000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z66" s="3">
         <v>2400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4696,8 +4857,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4770,8 +4932,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4844,8 +5009,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4918,8 +5086,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4992,82 +5163,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-49500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-48600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-47600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-45100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-44200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-41700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-40800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-40200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-39900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-37600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-36100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-34800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-34300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-33600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-33400</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5140,8 +5317,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5214,8 +5394,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5288,82 +5471,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>300</v>
       </c>
       <c r="K76" s="3">
         <v>300</v>
       </c>
       <c r="L76" s="3">
+        <v>300</v>
+      </c>
+      <c r="M76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1100</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5436,161 +5625,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42277</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="W81" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5617,8 +5815,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5629,13 +5828,13 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5659,11 +5858,11 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
@@ -5671,11 +5870,11 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
@@ -5691,8 +5890,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5765,8 +5967,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5839,8 +6044,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5913,8 +6121,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5987,8 +6198,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6061,82 +6275,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-400</v>
       </c>
       <c r="J89" s="3">
         <v>-400</v>
       </c>
       <c r="K89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-500</v>
       </c>
       <c r="O89" s="3">
         <v>-500</v>
       </c>
       <c r="P89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6163,8 +6383,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6195,39 +6416,39 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
       <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
@@ -6237,8 +6458,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6311,8 +6535,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6385,20 +6612,23 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
@@ -6411,8 +6641,8 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -6424,32 +6654,32 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-900</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
       <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
@@ -6459,8 +6689,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6487,8 +6720,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6561,8 +6795,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6635,8 +6872,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6709,8 +6949,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6783,82 +7026,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>500</v>
+      </c>
+      <c r="K100" s="3">
+        <v>300</v>
+      </c>
+      <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
+        <v>300</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="O100" s="3">
+        <v>300</v>
+      </c>
+      <c r="P100" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S100" s="3">
+        <v>700</v>
+      </c>
+      <c r="T100" s="3">
+        <v>400</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="X100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>300</v>
-      </c>
-      <c r="M100" s="3">
-        <v>400</v>
-      </c>
-      <c r="N100" s="3">
-        <v>300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>500</v>
-      </c>
-      <c r="P100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>2300</v>
-      </c>
-      <c r="R100" s="3">
-        <v>700</v>
-      </c>
-      <c r="S100" s="3">
-        <v>400</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>200</v>
-      </c>
-      <c r="W100" s="3">
-        <v>1200</v>
-      </c>
-      <c r="X100" s="3">
-        <v>800</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6931,35 +7180,38 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -6967,42 +7219,45 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLBS_QTR_FIN.xlsx
@@ -6390,13 +6390,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6405,10 +6405,10 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
